--- a/data/trans_dic/P53_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P53_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con &lt;=  900 euros de ingresos mensuales netos en el mes anterior</t>
+          <t>Población con &lt;=  900 euros de ingresos mensuales netos en el mes anterior (tasa de respuesta: 90,32%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>38,54%</t>
+          <t>34,95%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>45,52%</t>
+          <t>36,21%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>43,61%</t>
+          <t>46,08%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>46,62%</t>
+          <t>50,97%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>44,05%</t>
+          <t>18,98%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>43,93%</t>
+          <t>48,97%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>48,58%</t>
+          <t>47,92%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>49,27%</t>
+          <t>52,14%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>41,37%</t>
+          <t>54,02%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>44,72%</t>
+          <t>42,88%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>46,16%</t>
+          <t>42,06%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>47,94%</t>
+          <t>42,01%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>49,1%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>52,44%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>31,29%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,43; 48,86</t>
+          <t>17,56; 52,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>32,29; 61,96</t>
+          <t>17,16; 53,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>32,93; 61,36</t>
+          <t>25,02; 74,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>35,05; 67,9</t>
+          <t>28,09; 79,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>33,62; 53,28</t>
+          <t>5,62; 34,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,96; 53,0</t>
+          <t>33,43; 64,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>37,7; 58,46</t>
+          <t>32,19; 63,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>39,4; 59,31</t>
+          <t>35,83; 67,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>34,05; 48,86</t>
+          <t>37,05; 69,01</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>36,76; 53,72</t>
+          <t>25,56; 66,6</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>38,51; 54,65</t>
+          <t>30,51; 54,4</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>40,6; 58,55</t>
+          <t>28,81; 54,73</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>37,77; 66,19</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>40,01; 69,07</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>18,44; 49,1</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19,65%</t>
+          <t>18,44%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>22,1%</t>
+          <t>20,04%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>21,73%</t>
+          <t>18,67%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>24,06%</t>
+          <t>20,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>29,15%</t>
+          <t>19,08%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>28,12%</t>
+          <t>25,41%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>29,65%</t>
+          <t>26,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>31,71%</t>
+          <t>23,96%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>24,49%</t>
+          <t>25,33%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>25,16%</t>
+          <t>21,17%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>25,59%</t>
+          <t>21,93%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>27,64%</t>
+          <t>23,41%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>21,27%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>22,55%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>20,1%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,02; 28,79</t>
+          <t>11,69; 36,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,47; 33,59</t>
+          <t>11,88; 35,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,02; 30,18</t>
+          <t>11,08; 31,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,42; 33,8</t>
+          <t>12,26; 32,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,93; 35,52</t>
+          <t>11,74; 38,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,17; 33,96</t>
+          <t>18,89; 32,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,26; 35,82</t>
+          <t>20,72; 33,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26,63; 38,67</t>
+          <t>17,63; 31,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,47; 29,86</t>
+          <t>19,17; 32,32</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20,69; 30,71</t>
+          <t>15,28; 28,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>20,95; 30,46</t>
+          <t>16,64; 30,18</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>22,73; 33,41</t>
+          <t>18,07; 31,89</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>16,54; 28,93</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>16,97; 30,27</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>14,82; 29,42</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>7,13%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>7,2%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>6,64%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,28%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,41; 11,67</t>
+          <t>3,04; 19,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,34; 18,21</t>
+          <t>3,25; 22,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 14,64</t>
+          <t>2,4; 20,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,19; 12,16</t>
+          <t>1,81; 15,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,19; 8,85</t>
+          <t>0,0; 7,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,07; 11,37</t>
+          <t>1,09; 8,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,19; 13,46</t>
+          <t>2,76; 10,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,46; 15,15</t>
+          <t>3,39; 11,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,03; 8,77</t>
+          <t>3,95; 13,27</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,05; 12,27</t>
+          <t>0,0; 2,69</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,82; 11,3</t>
+          <t>2,86; 9,72</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,21; 11,97</t>
+          <t>4,13; 12,56</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>3,93; 12,28</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>3,81; 11,21</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,27; 3,82</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>25,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>26,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>22,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>22,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>24,48%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1274,1725 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,29; 23,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,74; 28,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,6; 25,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,13; 29,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,26; 26,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,78; 27,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,58; 28,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,17; 31,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,66; 23,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,68; 26,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>19,7; 25,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>21,14; 28,52</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>16,64%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>18,11%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>18,2%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>19,35%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>13,26%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>18,96%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>20,41%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>20,37%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>21,82%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>17,22%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>17,85%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>19,33%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>19,31%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>20,58%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>15,29%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>12,06; 24,68</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>13,06; 26,36</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>12,59; 27,81</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>12,4; 29,23</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>8,93; 23,05</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>15,02; 23,48</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>16,48; 25,01</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>16,7; 25,16</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>17,6; 26,87</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>12,93; 25,08</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>14,56; 22,33</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>16,19; 24,41</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>15,83; 24,94</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>16,74; 26,77</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>11,67; 20,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con &lt;=  900 euros de ingresos mensuales netos en el mes anterior (tasa de respuesta: 90,32%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>34513</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>45530</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>46143</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>56525</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>32253</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>49856</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>59139</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>51748</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>55830</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>77340</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>84369</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>104669</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>97891</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>112355</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>109593</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>17344; 51605</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>21578; 67499</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>25055; 74996</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>31150; 87933</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>9550; 59242</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>34035; 65631</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>39730; 78652</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>35560; 67129</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>38298; 71328</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>46100; 120121</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>61187; 109104</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>71776; 136353</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>75302; 131971</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>85716; 147983</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>64593; 172000</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>63871</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>80405</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>67358</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>76885</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>88450</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>88271</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>110645</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>83075</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>85278</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>94391</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>152142</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>191051</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>150433</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>162164</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>182841</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>40494; 126574</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>47640; 143340</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>39971; 113051</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>46889; 125556</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>54410; 179094</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>65643; 113365</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>85980; 140492</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>61126; 108831</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>64538; 108842</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>68138; 127876</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>115475; 209385</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>147440; 260274</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>116994; 204643</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>122033; 217740</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>134834; 267598</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>22122</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>28429</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>20709</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>14634</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>12503</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>24090</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>22795</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>24547</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1949</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>34625</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>52520</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>43504</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>39181</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>9132</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8479; 53822</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10586; 74629</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6635; 57072</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4919; 41413</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 26359</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3768; 28441</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>11355; 43029</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11104; 38753</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12596; 42330</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 10295</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>17868; 60683</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>30395; 92544</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>23745; 74215</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>22498; 66174</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1919; 27199</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>120506</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>154365</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>134210</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>148045</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>127886</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>150629</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>193874</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>157618</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>165655</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>173680</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>271135</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>348239</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>291828</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>313700</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>301566</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>87312; 178721</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>111301; 224615</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>92828; 205044</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>94865; 223566</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>86134; 222239</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>119305; 186527</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>156545; 237506</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>129217; 194684</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>133602; 203940</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>130344; 252941</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>221138; 339145</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>291689; 439825</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>239219; 376972</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>255127; 408017</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>230205; 406958</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
